--- a/medicine/Enfance/Le_Chevreau_imprudent/Le_Chevreau_imprudent.xlsx
+++ b/medicine/Enfance/Le_Chevreau_imprudent/Le_Chevreau_imprudent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Chevreau imprudent (titre original : Goat in the garden) est un roman pour enfants illustré par William Geldart, publié au Royaume-Uni aux éditions Hodder Children's Books en 1994, puis en France aux éditions Bayard Jeunesse en 2000. Il est l'œuvre d'un collectif d'auteurs anglo-saxons publiant sous le pseudonyme de Lucy Daniels (en) au Royaume-Uni[1]
+Le Chevreau imprudent (titre original : Goat in the garden) est un roman pour enfants illustré par William Geldart, publié au Royaume-Uni aux éditions Hodder Children's Books en 1994, puis en France aux éditions Bayard Jeunesse en 2000. Il est l'œuvre d'un collectif d'auteurs anglo-saxons publiant sous le pseudonyme de Lucy Daniels (en) au Royaume-Uni
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cathy fait la connaissance de Lydia, une éleveuse de chèvres qui vit seule en haut d'une colline, près de Welford. Un de ses chevreaux, Houndini (En référence au célèbre Harry Houdini), s'échappe régulièrement pour aller grignoter les fleurs de la propriété du châtelain du village, Sam Western. Celui-ci tente d'empoisonner l'animal en lui faisant manger une plante toxique...
 </t>
@@ -543,7 +557,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Édition petit format : Bayard Jeunesse Poche, Collection S.O.S Animaux,n°306, 2000  (ISBN 2-227-75750-7).</t>
         </is>
